--- a/資料/課題提出状況.xlsx
+++ b/資料/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="138">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -462,6 +462,10 @@
   </si>
   <si>
     <t>必須</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSP１</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -540,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -557,6 +561,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -861,13 +869,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -879,7 +887,7 @@
     <col min="5" max="9" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>136</v>
       </c>
@@ -896,7 +904,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E2" s="3" t="s">
         <v>129</v>
       </c>
@@ -912,8 +920,11 @@
       <c r="I2" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J2" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -938,9 +949,12 @@
       <c r="H3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -950,7 +964,7 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -962,10 +976,13 @@
       <c r="G4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -975,7 +992,7 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -987,10 +1004,13 @@
       <c r="G5" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1000,7 +1020,7 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1012,12 +1032,15 @@
       <c r="G6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="I6" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1039,8 +1062,9 @@
         <v>134</v>
       </c>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1068,8 +1092,11 @@
       <c r="I8" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J8" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1094,9 +1121,12 @@
       <c r="H9" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I9" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1110,12 +1140,17 @@
         <v>17</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1141,8 +1176,9 @@
         <v>134</v>
       </c>
       <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1167,9 +1203,12 @@
       <c r="H12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1197,8 +1236,9 @@
       <c r="I13" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1226,8 +1266,9 @@
       <c r="I14" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1255,8 +1296,9 @@
       <c r="I15" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1284,8 +1326,9 @@
       <c r="I16" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1313,8 +1356,9 @@
       <c r="I17" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1342,8 +1386,9 @@
       <c r="I18" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1371,8 +1416,9 @@
       <c r="I19" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1392,8 +1438,9 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1421,8 +1468,9 @@
       <c r="I21" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1448,8 +1496,9 @@
         <v>134</v>
       </c>
       <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1475,8 +1524,9 @@
         <v>134</v>
       </c>
       <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1502,8 +1552,9 @@
         <v>134</v>
       </c>
       <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1531,8 +1582,9 @@
       <c r="I25" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1560,8 +1612,9 @@
       <c r="I26" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1583,8 +1636,9 @@
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1608,8 +1662,9 @@
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1635,8 +1690,9 @@
         <v>134</v>
       </c>
       <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1646,13 +1702,15 @@
       <c r="C30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="G30" s="3" t="s">
         <v>134</v>
       </c>
@@ -1660,8 +1718,9 @@
         <v>134</v>
       </c>
       <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1671,7 +1730,7 @@
       <c r="C31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -1683,10 +1742,13 @@
       <c r="G31" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1710,8 +1772,9 @@
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1737,8 +1800,9 @@
         <v>134</v>
       </c>
       <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1766,8 +1830,9 @@
       <c r="I34" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1786,11 +1851,16 @@
       <c r="F35" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J35" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1818,8 +1888,9 @@
       <c r="I36" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1829,7 +1900,7 @@
       <c r="C37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -1841,10 +1912,13 @@
       <c r="G37" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1872,49 +1946,58 @@
       <c r="I38" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E39" s="4">
         <f>COUNTIF(E3:E38,"〇")</f>
         <v>33</v>
       </c>
       <c r="F39" s="4">
         <f t="shared" ref="F39:I39" si="0">COUNTIF(F3:F38,"〇")</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H39" s="4">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I39" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" ref="J39" si="1">COUNTIF(J3:J38,"〇")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E40" s="6">
         <f>E39/COUNTA($A$3:$A$256)</f>
         <v>0.91666666666666663</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" ref="F40:I40" si="1">F39/COUNTA($A$3:$A$256)</f>
-        <v>0.88888888888888884</v>
+        <f t="shared" ref="F40:I40" si="2">F39/COUNTA($A$3:$A$256)</f>
+        <v>0.94444444444444442</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="1"/>
-        <v>0.91666666666666663</v>
+        <f t="shared" si="2"/>
+        <v>0.97222222222222221</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="1"/>
-        <v>0.69444444444444442</v>
+        <f t="shared" si="2"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" si="1"/>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="J40" s="6">
+        <f t="shared" ref="J40" si="3">J39/COUNTA($A$3:$A$256)</f>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
   </sheetData>

--- a/資料/課題提出状況.xlsx
+++ b/資料/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="141">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -466,6 +466,18 @@
   </si>
   <si>
     <t>JSP１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -875,7 +887,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -903,6 +915,9 @@
       <c r="H1" s="4" t="s">
         <v>135</v>
       </c>
+      <c r="J1" s="4" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E2" s="3" t="s">
@@ -952,7 +967,9 @@
       <c r="I3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
@@ -980,7 +997,9 @@
         <v>134</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
@@ -1008,7 +1027,9 @@
         <v>134</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
@@ -1038,7 +1059,9 @@
       <c r="I6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
@@ -1124,7 +1147,9 @@
       <c r="I9" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
@@ -1176,7 +1201,9 @@
         <v>134</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
@@ -1206,7 +1233,9 @@
       <c r="I12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
@@ -1236,7 +1265,9 @@
       <c r="I13" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
@@ -1266,7 +1297,9 @@
       <c r="I14" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
@@ -1296,7 +1329,9 @@
       <c r="I15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
@@ -1326,7 +1361,9 @@
       <c r="I16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
@@ -1356,7 +1393,9 @@
       <c r="I17" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
@@ -1386,7 +1425,9 @@
       <c r="I18" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
@@ -1416,7 +1457,9 @@
       <c r="I19" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
@@ -1435,10 +1478,14 @@
         <v>134</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
@@ -1468,7 +1515,9 @@
       <c r="I21" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
@@ -1496,7 +1545,9 @@
         <v>134</v>
       </c>
       <c r="I22" s="3"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
@@ -1523,8 +1574,12 @@
       <c r="H23" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="1"/>
+      <c r="I23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
@@ -1552,7 +1607,9 @@
         <v>134</v>
       </c>
       <c r="I24" s="3"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
@@ -1582,7 +1639,9 @@
       <c r="I25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J25" s="1"/>
+      <c r="J25" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
@@ -1612,7 +1671,9 @@
       <c r="I26" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J26" s="1"/>
+      <c r="J26" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
@@ -1746,7 +1807,9 @@
         <v>134</v>
       </c>
       <c r="I31" s="3"/>
-      <c r="J31" s="1"/>
+      <c r="J31" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
@@ -1772,7 +1835,9 @@
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
@@ -1830,7 +1895,9 @@
       <c r="I34" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J34" s="1"/>
+      <c r="J34" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
@@ -1888,7 +1955,9 @@
       <c r="I36" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J36" s="1"/>
+      <c r="J36" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
@@ -1916,7 +1985,9 @@
         <v>134</v>
       </c>
       <c r="I37" s="3"/>
-      <c r="J37" s="1"/>
+      <c r="J37" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
@@ -1946,7 +2017,9 @@
       <c r="I38" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J38" s="1"/>
+      <c r="J38" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E39" s="4">
@@ -1959,7 +2032,7 @@
       </c>
       <c r="G39" s="4">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39" s="4">
         <f t="shared" si="0"/>
@@ -1967,11 +2040,11 @@
       </c>
       <c r="I39" s="4">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" ref="J39" si="1">COUNTIF(J3:J38,"〇")</f>
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
@@ -1985,7 +2058,7 @@
       </c>
       <c r="G40" s="6">
         <f t="shared" si="2"/>
-        <v>0.97222222222222221</v>
+        <v>1</v>
       </c>
       <c r="H40" s="6">
         <f t="shared" si="2"/>
@@ -1993,11 +2066,11 @@
       </c>
       <c r="I40" s="6">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="J40" s="6">
         <f t="shared" ref="J40" si="3">J39/COUNTA($A$3:$A$256)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.80555555555555558</v>
       </c>
     </row>
   </sheetData>
